--- a/Resources/2018 Licensee Examination.xlsx
+++ b/Resources/2018 Licensee Examination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\DRE\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9248A-A556-4BD9-A74E-AFA993983716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34116578-F79A-43FB-BCF4-2A80CCB8B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="816" windowWidth="9906" windowHeight="9546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Month</t>
   </si>
@@ -51,40 +51,7 @@
     <t>Examinations Sales</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sept</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -152,9 +119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -436,353 +401,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>132817</v>
+      </c>
+      <c r="D2" s="1">
+        <v>286462</v>
+      </c>
+      <c r="E2" s="1">
+        <v>419279</v>
+      </c>
+      <c r="F2" s="1">
+        <v>338</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1771</v>
+      </c>
+      <c r="H2" s="1">
+        <v>319</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>132632</v>
+      </c>
+      <c r="D3" s="1">
+        <v>286653</v>
+      </c>
+      <c r="E3" s="1">
+        <v>419285</v>
+      </c>
+      <c r="F3" s="1">
+        <v>331</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1651</v>
+      </c>
+      <c r="H3" s="1">
+        <v>351</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>132466</v>
+      </c>
+      <c r="D4" s="1">
+        <v>286880</v>
+      </c>
+      <c r="E4" s="1">
+        <v>419346</v>
+      </c>
+      <c r="F4" s="1">
+        <v>427</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1892</v>
+      </c>
+      <c r="H4" s="1">
+        <v>334</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>132248</v>
+      </c>
+      <c r="D5" s="1">
+        <v>286716</v>
+      </c>
+      <c r="E5" s="1">
+        <v>418964</v>
+      </c>
+      <c r="F5" s="1">
+        <v>387</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1653</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>132335</v>
+      </c>
+      <c r="D6" s="1">
+        <v>287265</v>
+      </c>
+      <c r="E6" s="1">
+        <v>419600</v>
+      </c>
+      <c r="F6" s="1">
+        <v>482</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2183</v>
+      </c>
+      <c r="H6" s="1">
+        <v>383</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>132103</v>
+      </c>
+      <c r="D7" s="1">
+        <v>287051</v>
+      </c>
+      <c r="E7" s="1">
+        <v>419154</v>
+      </c>
+      <c r="F7" s="1">
+        <v>443</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1922</v>
+      </c>
+      <c r="H7" s="1">
+        <v>364</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>131670</v>
+      </c>
+      <c r="D8" s="1">
+        <v>287139</v>
+      </c>
+      <c r="E8" s="1">
+        <v>418809</v>
+      </c>
+      <c r="F8" s="1">
+        <v>342</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1965</v>
+      </c>
+      <c r="H8" s="1">
+        <v>313</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>132817</v>
-      </c>
-      <c r="C2" s="1">
-        <v>286462</v>
-      </c>
-      <c r="D2" s="1">
-        <v>419279</v>
-      </c>
-      <c r="E2" s="1">
-        <v>338</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1771</v>
-      </c>
-      <c r="G2" s="1">
-        <v>319</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="C9" s="1">
+        <v>131848</v>
+      </c>
+      <c r="D9" s="1">
+        <v>287853</v>
+      </c>
+      <c r="E9" s="1">
+        <v>419701</v>
+      </c>
+      <c r="F9" s="1">
+        <v>399</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2187</v>
+      </c>
+      <c r="H9" s="1">
+        <v>303</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>132632</v>
-      </c>
-      <c r="C3" s="1">
-        <v>286653</v>
-      </c>
-      <c r="D3" s="1">
-        <v>419285</v>
-      </c>
-      <c r="E3" s="1">
-        <v>331</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1651</v>
-      </c>
-      <c r="G3" s="1">
-        <v>351</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="C10" s="1">
+        <v>131743</v>
+      </c>
+      <c r="D10" s="1">
+        <v>288245</v>
+      </c>
+      <c r="E10" s="1">
+        <v>419988</v>
+      </c>
+      <c r="F10" s="1">
+        <v>358</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2090</v>
+      </c>
+      <c r="H10" s="1">
+        <v>335</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>132466</v>
-      </c>
-      <c r="C4" s="1">
-        <v>286880</v>
-      </c>
-      <c r="D4" s="1">
-        <v>419346</v>
-      </c>
-      <c r="E4" s="1">
-        <v>427</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1892</v>
-      </c>
-      <c r="G4" s="1">
-        <v>334</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+      <c r="C11" s="1">
+        <v>131739</v>
+      </c>
+      <c r="D11" s="1">
+        <v>289234</v>
+      </c>
+      <c r="E11" s="1">
+        <v>420973</v>
+      </c>
+      <c r="F11" s="1">
+        <v>402</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2449</v>
+      </c>
+      <c r="H11" s="1">
+        <v>341</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>132248</v>
-      </c>
-      <c r="C5" s="1">
-        <v>286716</v>
-      </c>
-      <c r="D5" s="1">
-        <v>418964</v>
-      </c>
-      <c r="E5" s="1">
-        <v>387</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1653</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="C12" s="1">
+        <v>131549</v>
+      </c>
+      <c r="D12" s="1">
+        <v>289930</v>
+      </c>
+      <c r="E12" s="1">
+        <v>421479</v>
+      </c>
+      <c r="F12" s="1">
+        <v>320</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1951</v>
+      </c>
+      <c r="H12" s="1">
+        <v>376</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
-        <v>132335</v>
-      </c>
-      <c r="C6" s="1">
-        <v>287265</v>
-      </c>
-      <c r="D6" s="1">
-        <v>419600</v>
-      </c>
-      <c r="E6" s="1">
-        <v>482</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2183</v>
-      </c>
-      <c r="G6" s="1">
-        <v>383</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>132103</v>
-      </c>
-      <c r="C7" s="1">
-        <v>287051</v>
-      </c>
-      <c r="D7" s="1">
-        <v>419154</v>
-      </c>
-      <c r="E7" s="1">
-        <v>443</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1922</v>
-      </c>
-      <c r="G7" s="1">
-        <v>364</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>131670</v>
-      </c>
-      <c r="C8" s="1">
-        <v>287139</v>
-      </c>
-      <c r="D8" s="1">
-        <v>418809</v>
-      </c>
-      <c r="E8" s="1">
-        <v>342</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1965</v>
-      </c>
-      <c r="G8" s="1">
-        <v>313</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>131848</v>
-      </c>
-      <c r="C9" s="1">
-        <v>287853</v>
-      </c>
-      <c r="D9" s="1">
-        <v>419701</v>
-      </c>
-      <c r="E9" s="1">
-        <v>399</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2187</v>
-      </c>
-      <c r="G9" s="1">
-        <v>303</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>131743</v>
-      </c>
-      <c r="C10" s="1">
-        <v>288245</v>
-      </c>
-      <c r="D10" s="1">
-        <v>419988</v>
-      </c>
-      <c r="E10" s="1">
-        <v>358</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2090</v>
-      </c>
-      <c r="G10" s="1">
-        <v>335</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>131739</v>
-      </c>
-      <c r="C11" s="1">
-        <v>289234</v>
-      </c>
-      <c r="D11" s="1">
-        <v>420973</v>
-      </c>
-      <c r="E11" s="1">
-        <v>402</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2449</v>
-      </c>
-      <c r="G11" s="1">
-        <v>341</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>131549</v>
-      </c>
-      <c r="C12" s="1">
-        <v>289930</v>
-      </c>
-      <c r="D12" s="1">
-        <v>421479</v>
-      </c>
-      <c r="E12" s="1">
-        <v>320</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1951</v>
-      </c>
-      <c r="G12" s="1">
-        <v>376</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>131357</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>290155</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>421512</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>366</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>1643</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>375</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>3158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>